--- a/biology/Botanique/Nyctinastie/Nyctinastie.xlsx
+++ b/biology/Botanique/Nyctinastie/Nyctinastie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, la nyctinastie est un mouvement (nastie) répondant à la variation jour/nuit (dans le langage populaire, on l'appelle mouvement de veille et de sommeil) qui a deux origines : la photonastie (variation journalière de la lumière) ou la thermonastie (variations quotidiennes de température). Ce phénomène ne doit pas être confondu avec l'héliotropisme qui est la variation de l'orientation des feuilles pour suivre la lumière (ex. : Helianthus annuus).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces mouvements généralement circadiens se rencontrent uniquement chez les végétaux supérieurs en réponse à l'apparition de l'obscurité. Cela se traduit par exemple par la fermeture des pétales d'une fleur à la tombée du jour, l'arrêt du mouvement des feuilles (possédant souvent alors un organe spécialisé à leur base, le pulvinus) pour un grand nombre de légumineuses ou le repli des feuilles chez la Sensitive Mimosa pudica.
 Ces mouvements sont associés à la lumière diurne mais également aux variations de température (thermonastie telle la Tulipe ou le Crocus) et sont contrôlés par l'horloge circadienne et les récepteurs phytochromes.
@@ -543,7 +557,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La lumière provoque la mise en place d’une onde de dépolarisation des membranes, induisant une dépolarisation membranaire, notamment vis-à-vis de la perméabilité du calcium Ca2+. La concentration intracellulaire en ions étant modifiée, la pression osmotique évolue et entraîne une variation de la turgescence des cellules. Ce sont les variations différentielles de turgescence entre la face supérieure et inférieure d'un organe (feuille, pétale) qui sont à l’origine de modifications du repliement de ces organes.
 </t>
@@ -574,9 +590,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nyctinastie se déclenche la nuit mais aussi par temps humide ou nuageux. Le processus évolutif qui sous-tend ce phénomène peut être un compromis entre la pollinisation nécessaire le jour (fleur ouverte) et la destruction des organes reproducteurs la nuit (fleur fermée) causée par des facteurs exogènes (par exemple la pluie, le refroidissement nocturne, pendant lequel ils perdent leur chaleur par rayonnement infrarouge). La nyctinastie a un impact positif sur la croissance des plantes et joue probablement un rôle, par le processus d'exaptation, de défense des plantes contre les herbivores actifs la nuit[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nyctinastie se déclenche la nuit mais aussi par temps humide ou nuageux. Le processus évolutif qui sous-tend ce phénomène peut être un compromis entre la pollinisation nécessaire le jour (fleur ouverte) et la destruction des organes reproducteurs la nuit (fleur fermée) causée par des facteurs exogènes (par exemple la pluie, le refroidissement nocturne, pendant lequel ils perdent leur chaleur par rayonnement infrarouge). La nyctinastie a un impact positif sur la croissance des plantes et joue probablement un rôle, par le processus d'exaptation, de défense des plantes contre les herbivores actifs la nuit.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>L'horloge florale de Linné</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl von Linné, le naturaliste suédois, s'est intéressé aux mouvements des sépales et pétales des fleurs à la suite des observations de son fils Carl von Linné le Jeune dans son mémoire Horologium Plantarum. Au chapitre IX Adumbrationes (Ébauches) de son ouvrage Philosophia botanica (1751) il émet une idée originale : celle d'une « horologium florae », une horloge de Flore réglée sur l'ouverture, l'épanouissement et la fermeture des pétales de certaines fleurs (elle lui donnait, paraît-il, l'heure à une demi-heure près).
 Linné attribue un nom différent à trois groupes de fleurs :
@@ -663,7 +683,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chez l'oxalis, les feuilles se referment en fin de journée.</t>
         </is>
